--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Variable</t>
   </si>
@@ -947,9 +947,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1153,6 +1159,9 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
@@ -1160,6 +1169,9 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
